--- a/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
+++ b/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="7410"/>
+    <workbookView windowWidth="18650" windowHeight="7120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$E$44</definedName>
+    <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t># 测试结果</t>
   </si>
@@ -37,16 +37,61 @@
     <t>## Settings Manager (xfce4-settings)</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 姓名 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 备注 </t>
+    <t>对应提交物</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t xml:space="preserve"> 金额 </t>
   </si>
   <si>
-    <t>完成，提交安装全程截图。但缺乏详细的安装过程步骤文字说明</t>
+    <t>龚士豪</t>
+  </si>
+  <si>
+    <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第1组_102543_1651305426257</t>
+  </si>
+  <si>
+    <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第3组_102543_1652066304240</t>
+  </si>
+  <si>
+    <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第5组_102543_1651987214911</t>
+  </si>
+  <si>
+    <t>龚士豪第二组OpenEuler RISC-V Xfce之Settings Manager功能测试-第2组_102543_1651454474223</t>
+  </si>
+  <si>
+    <t>龚士豪第四组OpenEuler RISC-V Xfce之Settings Manager功能测试-第4组_102543_1651828907144</t>
+  </si>
+  <si>
+    <t>许正韬</t>
+  </si>
+  <si>
+    <t>许正韬Setting1_117522_1650280640716</t>
+  </si>
+  <si>
+    <t>许正韬Settings Manager2. Panel等_117522_1650562931878</t>
+  </si>
+  <si>
+    <t>许正韬第三组Seeting Manager3_117522_1652006237624</t>
+  </si>
+  <si>
+    <t>许正韬第四组Setting Manager4_117522_1652009700991</t>
+  </si>
+  <si>
+    <t>许正韬第五组Settings Manager-5_117522_1652025279619</t>
+  </si>
+  <si>
+    <t>OpenEuler RISC-V Xfce之Settings Manager功能测试-第6组_102543_1652057490252</t>
+  </si>
+  <si>
+    <t>Setting Manager-6_117522_1652094966386</t>
   </si>
 </sst>
 </file>
@@ -54,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,31 +113,98 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +226,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,29 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,60 +263,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,61 +273,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,121 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +464,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,6 +498,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,188 +564,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,16 +721,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1018,19 +1056,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4615384615385" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.3076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.0769230769231" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15384615384615" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="1"/>
+    <col min="3" max="3" width="28.4615384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8846153846154" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.15384615384615" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1044,102 +1083,200 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="3">
-        <v>406</v>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="46.5" spans="1:5">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" ht="46.5" spans="1:5">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="46.5" spans="1:5">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="46.5" spans="1:5">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="46.5" spans="1:5">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="31" spans="1:5">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="31" spans="1:5">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="46.5" spans="1:5">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="46.5" spans="1:5">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="31" spans="1:5">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="46.5" spans="1:5">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="31" spans="1:5">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3"/>

--- a/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
+++ b/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
@@ -8,6 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="缺陷1" sheetId="2" r:id="rId2"/>
+    <sheet name="缺陷2" sheetId="3" r:id="rId3"/>
+    <sheet name="缺陷3" sheetId="4" r:id="rId4"/>
+    <sheet name="缺陷4" sheetId="5" r:id="rId5"/>
+    <sheet name="缺陷5" sheetId="6" r:id="rId6"/>
+    <sheet name="缺陷6" sheetId="7" r:id="rId7"/>
+    <sheet name="缺陷7" sheetId="8" r:id="rId8"/>
+    <sheet name="缺陷8" sheetId="9" r:id="rId9"/>
+    <sheet name="缺陷9" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t># 测试结果</t>
   </si>
@@ -58,6 +67,9 @@
     <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第1组_102543_1651305426257</t>
   </si>
   <si>
+    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。报告缺陷8个。</t>
+  </si>
+  <si>
     <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第3组_102543_1652066304240</t>
   </si>
   <si>
@@ -91,7 +103,86 @@
     <t>OpenEuler RISC-V Xfce之Settings Manager功能测试-第6组_102543_1652057490252</t>
   </si>
   <si>
+    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。</t>
+  </si>
+  <si>
     <t>Setting Manager-6_117522_1652094966386</t>
+  </si>
+  <si>
+    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。报告缺陷1个。</t>
+  </si>
+  <si>
+    <t>安装Xfce4-terminal后，系统无法进入：
+安装过程:
+Upgraded:
+  gtk3-3.24.30-5.oe1.riscv64                                                    
+Installed:
+  xfce4-terminal-0.8.10-1.oe1.riscv64                                           
+  dconf-0.38.0-1.oe1.riscv64                                                    
+  dejavu-fonts-2.37-1.oe1.noarch                                                
+  gtk-update-icon-cache-3.24.30-5.oe1.riscv64                                   
+  vte291-0.62.3-1.oe1.riscv64
+xfce启动报错：
+[root@openEuler-RISCV-rare ~]# startxfce4
+/usr/bin/startxfce4: Starting X server
+X.Org X Server 1.20.11
+X Protocol Version 11, Revision 0
+Build Operating System: oe-RISCV-worker25 5.10-3.oe1.riscv64 
+Current Operating System: Linux openEuler-RISCV-rare 5.10.0 #1 SMP Sat Apr 2 15:21:07 CST 2022 riscv64
+Kernel command line: loglevel=3 swiotlb=1 console=ttyS0 rw root=/dev/vda1
+Build Date: 23 April 2022  09:52:30AM
+Build ID: xorg-x11-server 1.20.11-4.oe1 
+Current version of pixman: 0.38.0
+ Before reporting problems, check http://wiki.x.org
+ to make sure that you have the latest version.
+Markers: (--) probed, (**) from config file, (==) default setting,
+ (++) from command line, (!!) notice, (II) informational,
+ (WW) warning, (EE) error, (NI) not implemented, (??) unknown.
+(==) Log file: "/var/log/Xorg.0.log", Time: Mon May  9 10:51:32 2022
+(==) Using system config directory "/usr/share/X11/xorg.conf.d"
+pci id for fd 11: 1234:1111, driver (null)
+MESA-LOADER: failed to open bochs-drm: /usr/lib64/dri/bochs-drm_dri.so: cannot open shared object file: No such file or directory (search paths /usr/lib64/dri, suffix _dri)
+failed to load driver: bochs-drm
+MESA-LOADER: failed to open kms_swrast: /usr/lib64/dri/kms_swrast_dri.so: cannot open shared object file: No such file or directory (search paths /usr/lib64/dri, suffix _dri)
+failed to load driver: kms_swrast
+MESA-LOADER: failed to open swrast: /usr/lib64/dri/swrast_dri.so: cannot open shared object file: No such file or directory (search paths /usr/lib64/dri, suffix _dri)
+failed to load swrast driver
+couldn't get display device
+(II) modeset(0): Initializing kms color map for depth 24, 8 bpc.
+The XKEYBOARD keymap compiler (xkbcomp) reports:
+&gt; Internal error:   Could not resolve keysym XF86MonBrightnessCycle
+&gt; Internal error:   Could not resolve keysym XF86RotationLockToggle
+&gt; Internal error:   Could not resolve keysym XF86FullScreen
+Errors from xkbcomp are not fatal to the X server
+&lt;stdin&gt;:0: warning: Unknown encoding: C.UTF-8
+    xfce4-session: symbol lookup error: /usr/lib64/libgtk-3.so.0: undefined symbol: atk_plug_set_child
+xinit: connection to X server lost
+waiting for X server to shut down (II) Server terminated successfully (0). Closing log file.
+怀疑是安装的时候升级了gtk3到最新版本导致的。</t>
+  </si>
+  <si>
+    <t>8、修改每英寸点数（DPI）功能不正常，随着点数增加可以看见字在变大，也就是点数在增加，但是按住“+”或“-”键进行大幅修改时，数值会不准确，比如数值显示已经增加到170，但是松开鼠标会发现实际没有增加到170</t>
+  </si>
+  <si>
+    <t>14、在主显示屏上显示图标（show icons on primary display）功能不正常，勾选与取消勾选图标只是会动一下</t>
+  </si>
+  <si>
+    <t>15、默认图标中的回收站图标不正常，勾选与不勾选都不显示</t>
+  </si>
+  <si>
+    <t>１、修改快捷方式窗格的图标尺寸功能不正常，调整后无变化</t>
+  </si>
+  <si>
+    <t>2、设置快捷方式窗格是否显示图标标志功能不正常，勾选与不勾选无变化</t>
+  </si>
+  <si>
+    <t>4、设置树窗格是否显示图标标志的功能不正常，勾选与不勾选无变化</t>
+  </si>
+  <si>
+    <t>5、是否展示缩略图功能不正常，没看见有缩略图</t>
+  </si>
+  <si>
+    <t>9、以二进制形式显示文件大小功能(show file size in binary format)不正常，只有第一个文件的大小形式会有所变化，其余均无变化</t>
   </si>
 </sst>
 </file>
@@ -99,12 +190,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +204,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -121,14 +226,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -159,90 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,11 +348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,13 +371,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,13 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,13 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,133 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,11 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,26 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +634,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,154 +667,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1059,273 +1163,502 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4615384615385" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3076923076923" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.4615384615385" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8846153846154" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.15384615384615" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="12.4615384615385" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.3076923076923" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.4615384615385" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.8846153846154" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.15384615384615" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="3" ht="62" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="46.5" spans="1:5">
-      <c r="A5" s="3">
+    <row r="5" ht="62" spans="1:5">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>200</v>
-      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="46.5" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="46.5" spans="1:5">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="46.5" spans="1:5">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="46.5" spans="1:5">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="31" spans="1:5">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="31" spans="1:5">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="46.5" spans="1:5">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="46.5" spans="1:5">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="46.5" spans="1:5">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="31" spans="1:5">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="46.5" spans="1:5">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="46.5" spans="1:5">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="46.5" spans="1:5">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" ht="62" spans="1:5">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="31" spans="1:5">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="31" spans="1:5">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="46.5" spans="1:5">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="46.5" spans="1:5">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="31" spans="1:5">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="46.5" spans="1:5">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="31" spans="1:5">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="109.153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="119.846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="409.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="104.692307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="127.923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="201.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="63.0769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="108.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="61.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="108.5" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="82.5384615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="124" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="124" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="77.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="93" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
+++ b/Report/Xfce/OpenEuler RISC-V Xfce settings Manager功能测试/测试审核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7120"/>
+    <workbookView windowWidth="18650" windowHeight="7120" tabRatio="916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="缺陷7" sheetId="8" r:id="rId8"/>
     <sheet name="缺陷8" sheetId="9" r:id="rId9"/>
     <sheet name="缺陷9" sheetId="10" r:id="rId10"/>
+    <sheet name="缺陷10" sheetId="11" r:id="rId11"/>
+    <sheet name="缺陷11" sheetId="12" r:id="rId12"/>
+    <sheet name="缺陷12" sheetId="13" r:id="rId13"/>
+    <sheet name="缺陷13" sheetId="14" r:id="rId14"/>
+    <sheet name="缺陷14" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="pkg_test_ppl.md" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t># 测试结果</t>
   </si>
@@ -73,9 +78,15 @@
     <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第3组_102543_1652066304240</t>
   </si>
   <si>
+    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。报告缺陷1个。</t>
+  </si>
+  <si>
     <t>龚士豪OpenEuler RISC-V Xfce之Settings Manager功能测试-第5组_102543_1651987214911</t>
   </si>
   <si>
+    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。报告缺陷4个。</t>
+  </si>
+  <si>
     <t>龚士豪第二组OpenEuler RISC-V Xfce之Settings Manager功能测试-第2组_102543_1651454474223</t>
   </si>
   <si>
@@ -107,9 +118,6 @@
   </si>
   <si>
     <t>Setting Manager-6_117522_1652094966386</t>
-  </si>
-  <si>
-    <t>按要求对三个组件里的功能进行测试，用文字和截图充分。报告缺陷1个。</t>
   </si>
   <si>
     <t>安装Xfce4-terminal后，系统无法进入：
@@ -184,6 +192,74 @@
   <si>
     <t>9、以二进制形式显示文件大小功能(show file size in binary format)不正常，只有第一个文件的大小形式会有所变化，其余均无变化</t>
   </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Margins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置功能不正常，设置边距后，边缘也可以放置窗口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Status notification开关功能不正常，开与关没有变化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lock screen when system is going to sleep功能不正常，因为锁屏功能不正常，无法锁屏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Brightness reduction功能不正常，无法修改，只能为默认设置</t>
+    </r>
+  </si>
+  <si>
+    <t>5.对于PADs，无法选择</t>
+  </si>
 </sst>
 </file>
 
@@ -191,11 +267,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,11 +287,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,9 +301,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,6 +315,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -255,26 +390,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,30 +414,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -334,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,24 +438,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -371,187 +459,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,32 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,15 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,174 +709,212 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1163,7 +1254,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1180,7 +1271,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="3" ht="62" spans="1:1">
       <c r="A3" s="3" t="s">
@@ -1188,248 +1279,252 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="62" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="46.5" spans="1:5">
-      <c r="A6" s="5">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="62" spans="1:5">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="46.5" spans="1:5">
-      <c r="A7" s="5">
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="62" spans="1:5">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="46.5" spans="1:5">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" ht="46.5" spans="1:5">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="31" spans="1:5">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="31" spans="1:5">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="46.5" spans="1:5">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="46.5" spans="1:5">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="31" spans="1:5">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" ht="46.5" spans="1:5">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="46.5" spans="1:5">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" ht="62" spans="1:5">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="46.5" spans="1:5">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="31" spans="1:5">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="31" spans="1:5">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="46.5" spans="1:5">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="46.5" spans="1:5">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="31" spans="1:5">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="46.5" spans="1:5">
-      <c r="A15" s="5">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="62" spans="1:5">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="5"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="5"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="5"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,8 +1548,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="82.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="120" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="63.5384615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="93" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="62.1538461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="170.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="61.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="124" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="31.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1478,8 +1698,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="409.5" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
+      <c r="A1" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1503,8 +1723,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="31" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
+      <c r="A1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1527,9 +1747,9 @@
     <col min="1" max="1" width="127.923076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="201.5" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1552,9 +1772,9 @@
     <col min="1" max="1" width="63.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1577,9 +1797,9 @@
     <col min="1" max="1" width="61.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1602,9 +1822,9 @@
     <col min="1" max="1" width="82.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="124" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1627,9 +1847,9 @@
     <col min="1" max="1" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="124" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1652,9 +1872,9 @@
     <col min="1" max="1" width="77.6923076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="93" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
